--- a/Data/Temp/Reporte EDS por cerrar.xlsx
+++ b/Data/Temp/Reporte EDS por cerrar.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>EDS3234</t>
   </si>
@@ -33,9 +33,6 @@
     <t>EDS3226</t>
   </si>
   <si>
-    <t>EDS3218</t>
-  </si>
-  <si>
     <t>EDS2222</t>
   </si>
   <si>
@@ -64,67 +61,19 @@
   </si>
   <si>
     <t>EDS2231</t>
-  </si>
-  <si>
-    <t>EDS3130</t>
-  </si>
-  <si>
-    <t>EDS3122</t>
-  </si>
-  <si>
-    <t>EDS3114</t>
-  </si>
-  <si>
-    <t>EDS3106</t>
-  </si>
-  <si>
-    <t>EDS3098</t>
-  </si>
-  <si>
-    <t>EDS3090</t>
-  </si>
-  <si>
-    <t>EDS3082</t>
-  </si>
-  <si>
-    <t>EDS3074</t>
-  </si>
-  <si>
-    <t>EDS3066</t>
-  </si>
-  <si>
-    <t>EDS3058</t>
-  </si>
-  <si>
-    <t>EDS3050</t>
-  </si>
-  <si>
-    <t>EDS3042</t>
-  </si>
-  <si>
-    <t>EDS3034</t>
-  </si>
-  <si>
-    <t>EDS3026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -142,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -150,30 +99,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD5D3D1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD5D3D1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD5D3D1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD5D3D1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,150 +387,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A31"/>
+      <selection sqref="A1:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A12" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
